--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.05492</v>
+        <v>6.840962666666667</v>
       </c>
       <c r="H2">
-        <v>42.16476</v>
+        <v>20.522888</v>
       </c>
       <c r="I2">
-        <v>0.5329941298006925</v>
+        <v>0.3877069165303996</v>
       </c>
       <c r="J2">
-        <v>0.5329941298006924</v>
+        <v>0.3877069165303996</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.499230333333333</v>
+        <v>2.411650333333333</v>
       </c>
       <c r="N2">
-        <v>4.497691</v>
+        <v>7.234951</v>
       </c>
       <c r="O2">
-        <v>0.1183245025392715</v>
+        <v>0.2281979581963742</v>
       </c>
       <c r="P2">
-        <v>0.1183245025392715</v>
+        <v>0.2281979581963742</v>
       </c>
       <c r="Q2">
-        <v>21.07156239657333</v>
+        <v>16.49800989538755</v>
       </c>
       <c r="R2">
-        <v>189.64406156916</v>
+        <v>148.482089058488</v>
       </c>
       <c r="S2">
-        <v>0.06306626526501882</v>
+        <v>0.08847392673084926</v>
       </c>
       <c r="T2">
-        <v>0.06306626526501881</v>
+        <v>0.08847392673084928</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.05492</v>
+        <v>6.840962666666667</v>
       </c>
       <c r="H3">
-        <v>42.16476</v>
+        <v>20.522888</v>
       </c>
       <c r="I3">
-        <v>0.5329941298006925</v>
+        <v>0.3877069165303996</v>
       </c>
       <c r="J3">
-        <v>0.5329941298006924</v>
+        <v>0.3877069165303996</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.021944</v>
       </c>
       <c r="O3">
-        <v>0.2636556264706572</v>
+        <v>0.3161026464392645</v>
       </c>
       <c r="P3">
-        <v>0.2636556264706572</v>
+        <v>0.3161026464392646</v>
       </c>
       <c r="Q3">
-        <v>46.95254038816</v>
+        <v>22.85324825047467</v>
       </c>
       <c r="R3">
-        <v>422.57286349344</v>
+        <v>205.679234254272</v>
       </c>
       <c r="S3">
-        <v>0.1405269011977843</v>
+        <v>0.1225551823580664</v>
       </c>
       <c r="T3">
-        <v>0.1405269011977843</v>
+        <v>0.1225551823580664</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.05492</v>
+        <v>6.840962666666667</v>
       </c>
       <c r="H4">
-        <v>42.16476</v>
+        <v>20.522888</v>
       </c>
       <c r="I4">
-        <v>0.5329941298006925</v>
+        <v>0.3877069165303996</v>
       </c>
       <c r="J4">
-        <v>0.5329941298006924</v>
+        <v>0.3877069165303996</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.615388333333333</v>
+        <v>2.855816333333333</v>
       </c>
       <c r="N4">
-        <v>10.846165</v>
+        <v>8.567449</v>
       </c>
       <c r="O4">
-        <v>0.285339094678549</v>
+        <v>0.2702263455207323</v>
       </c>
       <c r="P4">
-        <v>0.2853390946785489</v>
+        <v>0.2702263455207323</v>
       </c>
       <c r="Q4">
-        <v>50.81399379393334</v>
+        <v>19.53653291919022</v>
       </c>
       <c r="R4">
-        <v>457.3259441454</v>
+        <v>175.828796272712</v>
       </c>
       <c r="S4">
-        <v>0.1520840624663106</v>
+        <v>0.1047686231871215</v>
       </c>
       <c r="T4">
-        <v>0.1520840624663105</v>
+        <v>0.1047686231871215</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.05492</v>
+        <v>6.840962666666667</v>
       </c>
       <c r="H5">
-        <v>42.16476</v>
+        <v>20.522888</v>
       </c>
       <c r="I5">
-        <v>0.5329941298006925</v>
+        <v>0.3877069165303996</v>
       </c>
       <c r="J5">
-        <v>0.5329941298006924</v>
+        <v>0.3877069165303996</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.215230999999999</v>
+        <v>1.960123333333333</v>
       </c>
       <c r="N5">
-        <v>12.645693</v>
+        <v>5.88037</v>
       </c>
       <c r="O5">
-        <v>0.3326807763115224</v>
+        <v>0.1854730498436289</v>
       </c>
       <c r="P5">
-        <v>0.3326807763115223</v>
+        <v>0.1854730498436289</v>
       </c>
       <c r="Q5">
-        <v>59.24473448652</v>
+        <v>13.40913054539556</v>
       </c>
       <c r="R5">
-        <v>533.2026103786799</v>
+        <v>120.68217490856</v>
       </c>
       <c r="S5">
-        <v>0.1773169008715787</v>
+        <v>0.07190918425436249</v>
       </c>
       <c r="T5">
-        <v>0.1773169008715786</v>
+        <v>0.07190918425436249</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>16.495396</v>
       </c>
       <c r="I6">
-        <v>0.2085141534479936</v>
+        <v>0.3116217912463337</v>
       </c>
       <c r="J6">
-        <v>0.2085141534479936</v>
+        <v>0.3116217912463337</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.499230333333333</v>
+        <v>2.411650333333333</v>
       </c>
       <c r="N6">
-        <v>4.497691</v>
+        <v>7.234951</v>
       </c>
       <c r="O6">
-        <v>0.1183245025392715</v>
+        <v>0.2281979581963742</v>
       </c>
       <c r="P6">
-        <v>0.1183245025392715</v>
+        <v>0.2281979581963742</v>
       </c>
       <c r="Q6">
-        <v>8.243466014515111</v>
+        <v>13.26037575395511</v>
       </c>
       <c r="R6">
-        <v>74.19119413063599</v>
+        <v>119.343381785596</v>
       </c>
       <c r="S6">
-        <v>0.02467233347913116</v>
+        <v>0.0711114564919101</v>
       </c>
       <c r="T6">
-        <v>0.02467233347913116</v>
+        <v>0.07111145649191011</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>16.495396</v>
       </c>
       <c r="I7">
-        <v>0.2085141534479936</v>
+        <v>0.3116217912463337</v>
       </c>
       <c r="J7">
-        <v>0.2085141534479936</v>
+        <v>0.3116217912463337</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>10.021944</v>
       </c>
       <c r="O7">
-        <v>0.2636556264706572</v>
+        <v>0.3161026464392645</v>
       </c>
       <c r="P7">
-        <v>0.2636556264706572</v>
+        <v>0.3161026464392646</v>
       </c>
       <c r="Q7">
         <v>18.36843721886933</v>
@@ -883,10 +883,10 @@
         <v>165.315934969824</v>
       </c>
       <c r="S7">
-        <v>0.05497592975532949</v>
+        <v>0.09850447290111011</v>
       </c>
       <c r="T7">
-        <v>0.05497592975532949</v>
+        <v>0.09850447290111013</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>16.495396</v>
       </c>
       <c r="I8">
-        <v>0.2085141534479936</v>
+        <v>0.3116217912463337</v>
       </c>
       <c r="J8">
-        <v>0.2085141534479936</v>
+        <v>0.3116217912463337</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.615388333333333</v>
+        <v>2.855816333333333</v>
       </c>
       <c r="N8">
-        <v>10.846165</v>
+        <v>8.567449</v>
       </c>
       <c r="O8">
-        <v>0.285339094678549</v>
+        <v>0.2702263455207323</v>
       </c>
       <c r="P8">
-        <v>0.2853390946785489</v>
+        <v>0.2702263455207323</v>
       </c>
       <c r="Q8">
-        <v>19.87908741737111</v>
+        <v>15.70260710720044</v>
       </c>
       <c r="R8">
-        <v>178.91178675634</v>
+        <v>141.323463964804</v>
       </c>
       <c r="S8">
-        <v>0.05949723977251453</v>
+        <v>0.08420841783312129</v>
       </c>
       <c r="T8">
-        <v>0.05949723977251452</v>
+        <v>0.08420841783312129</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>16.495396</v>
       </c>
       <c r="I9">
-        <v>0.2085141534479936</v>
+        <v>0.3116217912463337</v>
       </c>
       <c r="J9">
-        <v>0.2085141534479936</v>
+        <v>0.3116217912463337</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.215230999999999</v>
+        <v>1.960123333333333</v>
       </c>
       <c r="N9">
-        <v>12.645693</v>
+        <v>5.88037</v>
       </c>
       <c r="O9">
-        <v>0.3326807763115224</v>
+        <v>0.1854730498436289</v>
       </c>
       <c r="P9">
-        <v>0.3326807763115223</v>
+        <v>0.1854730498436289</v>
       </c>
       <c r="Q9">
-        <v>23.17730152549199</v>
+        <v>10.77767019739111</v>
       </c>
       <c r="R9">
-        <v>208.595713729428</v>
+        <v>96.99903177652</v>
       </c>
       <c r="S9">
-        <v>0.06936865044101841</v>
+        <v>0.05779744402019218</v>
       </c>
       <c r="T9">
-        <v>0.06936865044101839</v>
+        <v>0.05779744402019218</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.239594666666667</v>
+        <v>2.722503999999999</v>
       </c>
       <c r="H10">
-        <v>6.718783999999999</v>
+        <v>8.167511999999999</v>
       </c>
       <c r="I10">
-        <v>0.08493045926026416</v>
+        <v>0.1542960665791791</v>
       </c>
       <c r="J10">
-        <v>0.08493045926026414</v>
+        <v>0.1542960665791791</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.499230333333333</v>
+        <v>2.411650333333333</v>
       </c>
       <c r="N10">
-        <v>4.497691</v>
+        <v>7.234951</v>
       </c>
       <c r="O10">
-        <v>0.1183245025392715</v>
+        <v>0.2281979581963742</v>
       </c>
       <c r="P10">
-        <v>0.1183245025392715</v>
+        <v>0.2281979581963742</v>
       </c>
       <c r="Q10">
-        <v>3.357668258638222</v>
+        <v>6.565727679101331</v>
       </c>
       <c r="R10">
-        <v>30.219014327744</v>
+        <v>59.09154911191199</v>
       </c>
       <c r="S10">
-        <v>0.01004935434240262</v>
+        <v>0.03521004735110048</v>
       </c>
       <c r="T10">
-        <v>0.01004935434240262</v>
+        <v>0.03521004735110049</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.239594666666667</v>
+        <v>2.722503999999999</v>
       </c>
       <c r="H11">
-        <v>6.718783999999999</v>
+        <v>8.167511999999999</v>
       </c>
       <c r="I11">
-        <v>0.08493045926026416</v>
+        <v>0.1542960665791791</v>
       </c>
       <c r="J11">
-        <v>0.08493045926026414</v>
+        <v>0.1542960665791791</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>10.021944</v>
       </c>
       <c r="O11">
-        <v>0.2636556264706572</v>
+        <v>0.3161026464392645</v>
       </c>
       <c r="P11">
-        <v>0.2636556264706572</v>
+        <v>0.3161026464392646</v>
       </c>
       <c r="Q11">
-        <v>7.481697444010666</v>
+        <v>9.094927542591998</v>
       </c>
       <c r="R11">
-        <v>67.33527699609598</v>
+        <v>81.85434788332799</v>
       </c>
       <c r="S11">
-        <v>0.02239239344270557</v>
+        <v>0.04877339498084748</v>
       </c>
       <c r="T11">
-        <v>0.02239239344270557</v>
+        <v>0.04877339498084748</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.239594666666667</v>
+        <v>2.722503999999999</v>
       </c>
       <c r="H12">
-        <v>6.718783999999999</v>
+        <v>8.167511999999999</v>
       </c>
       <c r="I12">
-        <v>0.08493045926026416</v>
+        <v>0.1542960665791791</v>
       </c>
       <c r="J12">
-        <v>0.08493045926026414</v>
+        <v>0.1542960665791791</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.615388333333333</v>
+        <v>2.855816333333333</v>
       </c>
       <c r="N12">
-        <v>10.846165</v>
+        <v>8.567449</v>
       </c>
       <c r="O12">
-        <v>0.285339094678549</v>
+        <v>0.2702263455207323</v>
       </c>
       <c r="P12">
-        <v>0.2853390946785489</v>
+        <v>0.2702263455207323</v>
       </c>
       <c r="Q12">
-        <v>8.097004429262222</v>
+        <v>7.774971390765331</v>
       </c>
       <c r="R12">
-        <v>72.87303986335999</v>
+        <v>69.97474251688799</v>
       </c>
       <c r="S12">
-        <v>0.02423398035595716</v>
+        <v>0.04169486219991518</v>
       </c>
       <c r="T12">
-        <v>0.02423398035595715</v>
+        <v>0.04169486219991518</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.239594666666667</v>
+        <v>2.722503999999999</v>
       </c>
       <c r="H13">
-        <v>6.718783999999999</v>
+        <v>8.167511999999999</v>
       </c>
       <c r="I13">
-        <v>0.08493045926026416</v>
+        <v>0.1542960665791791</v>
       </c>
       <c r="J13">
-        <v>0.08493045926026414</v>
+        <v>0.1542960665791791</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.215230999999999</v>
+        <v>1.960123333333333</v>
       </c>
       <c r="N13">
-        <v>12.645693</v>
+        <v>5.88037</v>
       </c>
       <c r="O13">
-        <v>0.3326807763115224</v>
+        <v>0.1854730498436289</v>
       </c>
       <c r="P13">
-        <v>0.3326807763115223</v>
+        <v>0.1854730498436289</v>
       </c>
       <c r="Q13">
-        <v>9.440408866367997</v>
+        <v>5.336443615493333</v>
       </c>
       <c r="R13">
-        <v>84.96367979731198</v>
+        <v>48.02799253943999</v>
       </c>
       <c r="S13">
-        <v>0.02825473111919881</v>
+        <v>0.02861776204731598</v>
       </c>
       <c r="T13">
-        <v>0.02825473111919879</v>
+        <v>0.02861776204731598</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.576766333333333</v>
+        <v>2.582743333333333</v>
       </c>
       <c r="H14">
-        <v>13.730299</v>
+        <v>7.74823</v>
       </c>
       <c r="I14">
-        <v>0.1735612574910498</v>
+        <v>0.1463752256440876</v>
       </c>
       <c r="J14">
-        <v>0.1735612574910498</v>
+        <v>0.1463752256440876</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.499230333333333</v>
+        <v>2.411650333333333</v>
       </c>
       <c r="N14">
-        <v>4.497691</v>
+        <v>7.234951</v>
       </c>
       <c r="O14">
-        <v>0.1183245025392715</v>
+        <v>0.2281979581963742</v>
       </c>
       <c r="P14">
-        <v>0.1183245025392715</v>
+        <v>0.2281979581963742</v>
       </c>
       <c r="Q14">
-        <v>6.861626915512111</v>
+        <v>6.228673820747777</v>
       </c>
       <c r="R14">
-        <v>61.754642239609</v>
+        <v>56.05806438673</v>
       </c>
       <c r="S14">
-        <v>0.02053654945271888</v>
+        <v>0.03340252762251434</v>
       </c>
       <c r="T14">
-        <v>0.02053654945271887</v>
+        <v>0.03340252762251435</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.576766333333333</v>
+        <v>2.582743333333333</v>
       </c>
       <c r="H15">
-        <v>13.730299</v>
+        <v>7.74823</v>
       </c>
       <c r="I15">
-        <v>0.1735612574910498</v>
+        <v>0.1463752256440876</v>
       </c>
       <c r="J15">
-        <v>0.1735612574910498</v>
+        <v>0.1463752256440876</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>10.021944</v>
       </c>
       <c r="O15">
-        <v>0.2636556264706572</v>
+        <v>0.3161026464392645</v>
       </c>
       <c r="P15">
-        <v>0.2636556264706572</v>
+        <v>0.3161026464392646</v>
       </c>
       <c r="Q15">
-        <v>15.28936529791733</v>
+        <v>8.628036351013334</v>
       </c>
       <c r="R15">
-        <v>137.604287681256</v>
+        <v>77.65232715912001</v>
       </c>
       <c r="S15">
-        <v>0.04576040207483778</v>
+        <v>0.04626959619924059</v>
       </c>
       <c r="T15">
-        <v>0.04576040207483777</v>
+        <v>0.0462695961992406</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.576766333333333</v>
+        <v>2.582743333333333</v>
       </c>
       <c r="H16">
-        <v>13.730299</v>
+        <v>7.74823</v>
       </c>
       <c r="I16">
-        <v>0.1735612574910498</v>
+        <v>0.1463752256440876</v>
       </c>
       <c r="J16">
-        <v>0.1735612574910498</v>
+        <v>0.1463752256440876</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.615388333333333</v>
+        <v>2.855816333333333</v>
       </c>
       <c r="N16">
-        <v>10.846165</v>
+        <v>8.567449</v>
       </c>
       <c r="O16">
-        <v>0.285339094678549</v>
+        <v>0.2702263455207323</v>
       </c>
       <c r="P16">
-        <v>0.2853390946785489</v>
+        <v>0.2702263455207323</v>
       </c>
       <c r="Q16">
-        <v>16.54678760592611</v>
+        <v>7.375840596141111</v>
       </c>
       <c r="R16">
-        <v>148.921088453335</v>
+        <v>66.38256536527</v>
       </c>
       <c r="S16">
-        <v>0.04952381208376668</v>
+        <v>0.03955444230057438</v>
       </c>
       <c r="T16">
-        <v>0.04952381208376667</v>
+        <v>0.03955444230057438</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.576766333333333</v>
+        <v>2.582743333333333</v>
       </c>
       <c r="H17">
-        <v>13.730299</v>
+        <v>7.74823</v>
       </c>
       <c r="I17">
-        <v>0.1735612574910498</v>
+        <v>0.1463752256440876</v>
       </c>
       <c r="J17">
-        <v>0.1735612574910498</v>
+        <v>0.1463752256440876</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.215230999999999</v>
+        <v>1.960123333333333</v>
       </c>
       <c r="N17">
-        <v>12.645693</v>
+        <v>5.88037</v>
       </c>
       <c r="O17">
-        <v>0.3326807763115224</v>
+        <v>0.1854730498436289</v>
       </c>
       <c r="P17">
-        <v>0.3326807763115223</v>
+        <v>0.1854730498436289</v>
       </c>
       <c r="Q17">
-        <v>19.292127328023</v>
+        <v>5.062495471677778</v>
       </c>
       <c r="R17">
-        <v>173.629145952207</v>
+        <v>45.5624592451</v>
       </c>
       <c r="S17">
-        <v>0.05774049387972649</v>
+        <v>0.02714865952175829</v>
       </c>
       <c r="T17">
-        <v>0.05774049387972647</v>
+        <v>0.02714865952175829</v>
       </c>
     </row>
   </sheetData>
